--- a/public/data/lime/lime_table_swaziland.xlsx
+++ b/public/data/lime/lime_table_swaziland.xlsx
@@ -1354,13 +1354,13 @@
         <v>88</v>
       </c>
       <c r="D2" t="n">
-        <v>3.56</v>
+        <v>3.27</v>
       </c>
       <c r="E2" t="n">
-        <v>2.81</v>
+        <v>2.18</v>
       </c>
       <c r="F2" t="n">
-        <v>1.92</v>
+        <v>0.91</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -1372,13 +1372,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>2.67</v>
+        <v>2.32</v>
       </c>
       <c r="K2" t="n">
-        <v>1.84</v>
+        <v>1.09</v>
       </c>
       <c r="L2" t="n">
-        <v>0.89</v>
+        <v>0.15</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -1401,13 +1401,13 @@
         <v>89</v>
       </c>
       <c r="D3" t="n">
-        <v>3.64</v>
+        <v>3.34</v>
       </c>
       <c r="E3" t="n">
-        <v>2.75</v>
+        <v>2.11</v>
       </c>
       <c r="F3" t="n">
-        <v>1.73</v>
+        <v>0.84</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -1419,16 +1419,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2.17</v>
+        <v>1.81</v>
       </c>
       <c r="K3" t="n">
-        <v>1.12</v>
+        <v>0.58</v>
       </c>
       <c r="L3" t="n">
-        <v>0.32</v>
+        <v>0.05</v>
       </c>
       <c r="M3" t="n">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -1466,16 +1466,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>1.46</v>
+        <v>0.49</v>
       </c>
       <c r="K4" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -1495,13 +1495,13 @@
         <v>91</v>
       </c>
       <c r="D5" t="n">
-        <v>2.26</v>
+        <v>1.92</v>
       </c>
       <c r="E5" t="n">
-        <v>1.39</v>
+        <v>0.67</v>
       </c>
       <c r="F5" t="n">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -1513,16 +1513,16 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0.96</v>
+        <v>0.49</v>
       </c>
       <c r="K5" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -1542,13 +1542,13 @@
         <v>92</v>
       </c>
       <c r="D6" t="n">
-        <v>4.01</v>
+        <v>3.62</v>
       </c>
       <c r="E6" t="n">
-        <v>3.08</v>
+        <v>2.25</v>
       </c>
       <c r="F6" t="n">
-        <v>1.99</v>
+        <v>0.69</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1560,13 +1560,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>3.39</v>
+        <v>3.01</v>
       </c>
       <c r="K6" t="n">
-        <v>2.44</v>
+        <v>1.62</v>
       </c>
       <c r="L6" t="n">
-        <v>1.34</v>
+        <v>0.18</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -1589,13 +1589,13 @@
         <v>93</v>
       </c>
       <c r="D7" t="n">
-        <v>3.91</v>
+        <v>3.54</v>
       </c>
       <c r="E7" t="n">
-        <v>2.98</v>
+        <v>2.2</v>
       </c>
       <c r="F7" t="n">
-        <v>1.91</v>
+        <v>0.66</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1607,13 +1607,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>3.13</v>
+        <v>2.7</v>
       </c>
       <c r="K7" t="n">
-        <v>2.13</v>
+        <v>1.21</v>
       </c>
       <c r="L7" t="n">
-        <v>0.95</v>
+        <v>0.11</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -1654,16 +1654,16 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0.75</v>
+        <v>0.27</v>
       </c>
       <c r="K8" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -1683,13 +1683,13 @@
         <v>95</v>
       </c>
       <c r="D9" t="n">
-        <v>3.83</v>
+        <v>3.43</v>
       </c>
       <c r="E9" t="n">
-        <v>3.19</v>
+        <v>2.33</v>
       </c>
       <c r="F9" t="n">
-        <v>2.44</v>
+        <v>1.06</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1701,13 +1701,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>2.99</v>
+        <v>2.6</v>
       </c>
       <c r="K9" t="n">
-        <v>2.1</v>
+        <v>1.32</v>
       </c>
       <c r="L9" t="n">
-        <v>1.19</v>
+        <v>0.26</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -1730,13 +1730,13 @@
         <v>96</v>
       </c>
       <c r="D10" t="n">
-        <v>2.6</v>
+        <v>2.27</v>
       </c>
       <c r="E10" t="n">
-        <v>1.92</v>
+        <v>1.21</v>
       </c>
       <c r="F10" t="n">
-        <v>1.12</v>
+        <v>0.2</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1748,16 +1748,16 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>1.93</v>
+        <v>1.46</v>
       </c>
       <c r="K10" t="n">
-        <v>1.02</v>
+        <v>0.38</v>
       </c>
       <c r="L10" t="n">
-        <v>0.33</v>
+        <v>0.02</v>
       </c>
       <c r="M10" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -1777,13 +1777,13 @@
         <v>97</v>
       </c>
       <c r="D11" t="n">
-        <v>2.66</v>
+        <v>2.3</v>
       </c>
       <c r="E11" t="n">
-        <v>1.9</v>
+        <v>1.13</v>
       </c>
       <c r="F11" t="n">
-        <v>1.04</v>
+        <v>0.22</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1795,16 +1795,16 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>1.7</v>
+        <v>1.23</v>
       </c>
       <c r="K11" t="n">
-        <v>0.82</v>
+        <v>0.3</v>
       </c>
       <c r="L11" t="n">
-        <v>0.24</v>
+        <v>0.02</v>
       </c>
       <c r="M11" t="n">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -1824,13 +1824,13 @@
         <v>98</v>
       </c>
       <c r="D12" t="n">
-        <v>3.61</v>
+        <v>3.22</v>
       </c>
       <c r="E12" t="n">
-        <v>2.92</v>
+        <v>2.07</v>
       </c>
       <c r="F12" t="n">
-        <v>2.12</v>
+        <v>0.8</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1842,13 +1842,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>2.88</v>
+        <v>2.39</v>
       </c>
       <c r="K12" t="n">
-        <v>1.95</v>
+        <v>0.97</v>
       </c>
       <c r="L12" t="n">
-        <v>0.94</v>
+        <v>0.08</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -1871,13 +1871,13 @@
         <v>99</v>
       </c>
       <c r="D13" t="n">
-        <v>2.91</v>
+        <v>2.39</v>
       </c>
       <c r="E13" t="n">
-        <v>1.74</v>
+        <v>0.67</v>
       </c>
       <c r="F13" t="n">
-        <v>0.47</v>
+        <v>0.01</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1889,16 +1889,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>1.85</v>
+        <v>1.37</v>
       </c>
       <c r="K13" t="n">
-        <v>0.82</v>
+        <v>0.24</v>
       </c>
       <c r="L13" t="n">
-        <v>0.14</v>
+        <v>0.01</v>
       </c>
       <c r="M13" t="n">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -1918,13 +1918,13 @@
         <v>100</v>
       </c>
       <c r="D14" t="n">
-        <v>3.09</v>
+        <v>2.68</v>
       </c>
       <c r="E14" t="n">
-        <v>2.23</v>
+        <v>1.36</v>
       </c>
       <c r="F14" t="n">
-        <v>1.24</v>
+        <v>0.33</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1936,13 +1936,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>2.36</v>
+        <v>1.92</v>
       </c>
       <c r="K14" t="n">
-        <v>1.47</v>
+        <v>0.7</v>
       </c>
       <c r="L14" t="n">
-        <v>0.62</v>
+        <v>0.13</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -1983,16 +1983,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>1.32</v>
+        <v>0.78</v>
       </c>
       <c r="K15" t="n">
-        <v>0.31</v>
+        <v>0.06</v>
       </c>
       <c r="L15" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -2030,16 +2030,16 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>1.73</v>
+        <v>0.45</v>
       </c>
       <c r="K16" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0.07</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -2124,16 +2124,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>1.64</v>
+        <v>0.56</v>
       </c>
       <c r="K18" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -2180,7 +2180,7 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -2200,10 +2200,10 @@
         <v>107</v>
       </c>
       <c r="D20" t="n">
-        <v>2.55</v>
+        <v>1.03</v>
       </c>
       <c r="E20" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -2218,7 +2218,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>1.43</v>
+        <v>0.4</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2227,7 +2227,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -2247,16 +2247,16 @@
         <v>108</v>
       </c>
       <c r="D21" t="n">
-        <v>2.12</v>
+        <v>0.9</v>
       </c>
       <c r="E21" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.09</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2265,16 +2265,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>1.47</v>
+        <v>0.44</v>
       </c>
       <c r="K21" t="n">
-        <v>0.07</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0.66</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -2312,16 +2312,16 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>3.81</v>
+        <v>1.28</v>
       </c>
       <c r="K22" t="n">
-        <v>1.59</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -2341,10 +2341,10 @@
         <v>110</v>
       </c>
       <c r="D23" t="n">
-        <v>2.48</v>
+        <v>0.99</v>
       </c>
       <c r="E23" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -2359,16 +2359,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>1.93</v>
+        <v>0.61</v>
       </c>
       <c r="K23" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -2415,7 +2415,7 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -2435,16 +2435,16 @@
         <v>112</v>
       </c>
       <c r="D25" t="n">
-        <v>1.62</v>
+        <v>0.86</v>
       </c>
       <c r="E25" t="n">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.27</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2453,16 +2453,16 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>1.2</v>
+        <v>0.41</v>
       </c>
       <c r="K25" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -2500,16 +2500,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>1.22</v>
+        <v>0.48</v>
       </c>
       <c r="K26" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -2547,16 +2547,16 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>1.21</v>
+        <v>0.6</v>
       </c>
       <c r="K27" t="n">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0.46</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -2594,7 +2594,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0.84</v>
+        <v>0.14</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -2623,10 +2623,10 @@
         <v>117</v>
       </c>
       <c r="D29" t="n">
-        <v>2.23</v>
+        <v>1.93</v>
       </c>
       <c r="E29" t="n">
-        <v>0.75</v>
+        <v>0.18</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -2641,16 +2641,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>1.33</v>
+        <v>0.95</v>
       </c>
       <c r="K29" t="n">
-        <v>0.27</v>
+        <v>0.15</v>
       </c>
       <c r="L29" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -2670,13 +2670,13 @@
         <v>118</v>
       </c>
       <c r="D30" t="n">
-        <v>2.57</v>
+        <v>2.23</v>
       </c>
       <c r="E30" t="n">
-        <v>1.2</v>
+        <v>0.66</v>
       </c>
       <c r="F30" t="n">
-        <v>0.22</v>
+        <v>0.01</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2688,16 +2688,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>1.21</v>
+        <v>0.71</v>
       </c>
       <c r="K30" t="n">
-        <v>0.16</v>
+        <v>0.07</v>
       </c>
       <c r="L30" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -2717,13 +2717,13 @@
         <v>119</v>
       </c>
       <c r="D31" t="n">
-        <v>3.26</v>
+        <v>2.9</v>
       </c>
       <c r="E31" t="n">
-        <v>2.31</v>
+        <v>1.55</v>
       </c>
       <c r="F31" t="n">
-        <v>1.22</v>
+        <v>0.04</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2735,16 +2735,16 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>1.58</v>
+        <v>1.13</v>
       </c>
       <c r="K31" t="n">
-        <v>0.66</v>
+        <v>0.16</v>
       </c>
       <c r="L31" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -2782,7 +2782,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>1.38</v>
+        <v>0.23</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -2791,7 +2791,7 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -2829,16 +2829,16 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>1.25</v>
+        <v>0.67</v>
       </c>
       <c r="K33" t="n">
-        <v>0.19</v>
+        <v>0.02</v>
       </c>
       <c r="L33" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -2858,13 +2858,13 @@
         <v>122</v>
       </c>
       <c r="D34" t="n">
-        <v>2.82</v>
+        <v>2.39</v>
       </c>
       <c r="E34" t="n">
-        <v>1.68</v>
+        <v>0.77</v>
       </c>
       <c r="F34" t="n">
-        <v>0.48</v>
+        <v>0.04</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -2876,13 +2876,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>2.39</v>
+        <v>1.87</v>
       </c>
       <c r="K34" t="n">
-        <v>1.04</v>
+        <v>0.25</v>
       </c>
       <c r="L34" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
@@ -2923,16 +2923,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0.85</v>
+        <v>0.28</v>
       </c>
       <c r="K35" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0.55</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -2979,7 +2979,7 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -2999,13 +2999,13 @@
         <v>125</v>
       </c>
       <c r="D37" t="n">
-        <v>3.6</v>
+        <v>3.33</v>
       </c>
       <c r="E37" t="n">
-        <v>2.46</v>
+        <v>1.89</v>
       </c>
       <c r="F37" t="n">
-        <v>1.17</v>
+        <v>0.45</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3017,13 +3017,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>2.74</v>
+        <v>2.33</v>
       </c>
       <c r="K37" t="n">
-        <v>1.55</v>
+        <v>0.86</v>
       </c>
       <c r="L37" t="n">
-        <v>0.55</v>
+        <v>0.08</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -3064,16 +3064,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>1.12</v>
+        <v>0.37</v>
       </c>
       <c r="K38" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -3111,16 +3111,16 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>1.19</v>
+        <v>0.36</v>
       </c>
       <c r="K39" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -3140,13 +3140,13 @@
         <v>128</v>
       </c>
       <c r="D40" t="n">
-        <v>2.57</v>
+        <v>2.23</v>
       </c>
       <c r="E40" t="n">
-        <v>1.22</v>
+        <v>0.53</v>
       </c>
       <c r="F40" t="n">
-        <v>0.15</v>
+        <v>0.02</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3158,16 +3158,16 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>1.38</v>
+        <v>0.87</v>
       </c>
       <c r="K40" t="n">
-        <v>0.27</v>
+        <v>0.03</v>
       </c>
       <c r="L40" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
@@ -3205,7 +3205,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0.91</v>
+        <v>0.16</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3214,7 +3214,7 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>130</v>
       </c>
       <c r="D42" t="n">
-        <v>2.93</v>
+        <v>2.63</v>
       </c>
       <c r="E42" t="n">
-        <v>1.22</v>
+        <v>0.58</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -3252,16 +3252,16 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>1.11</v>
+        <v>0.65</v>
       </c>
       <c r="K42" t="n">
-        <v>0.08</v>
+        <v>0.01</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -3281,13 +3281,13 @@
         <v>132</v>
       </c>
       <c r="D43" t="n">
-        <v>2.21</v>
+        <v>1.78</v>
       </c>
       <c r="E43" t="n">
-        <v>1.27</v>
+        <v>0.43</v>
       </c>
       <c r="F43" t="n">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3299,16 +3299,16 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>1.26</v>
+        <v>0.63</v>
       </c>
       <c r="K43" t="n">
-        <v>0.21</v>
+        <v>0.03</v>
       </c>
       <c r="L43" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -3346,16 +3346,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>1.23</v>
+        <v>0.34</v>
       </c>
       <c r="K44" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -3375,13 +3375,13 @@
         <v>134</v>
       </c>
       <c r="D45" t="n">
-        <v>2.1</v>
+        <v>1.32</v>
       </c>
       <c r="E45" t="n">
-        <v>1.02</v>
+        <v>0.09</v>
       </c>
       <c r="F45" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -3393,16 +3393,16 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>1.12</v>
+        <v>0.47</v>
       </c>
       <c r="K45" t="n">
-        <v>0.17</v>
+        <v>0.02</v>
       </c>
       <c r="L45" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -3422,10 +3422,10 @@
         <v>135</v>
       </c>
       <c r="D46" t="n">
-        <v>1.43</v>
+        <v>0.81</v>
       </c>
       <c r="E46" t="n">
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -3440,16 +3440,16 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0.96</v>
+        <v>0.33</v>
       </c>
       <c r="K46" t="n">
-        <v>0.07</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -3496,7 +3496,7 @@
         <v>0</v>
       </c>
       <c r="M47" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N47" t="n">
         <v>0</v>
@@ -3516,13 +3516,13 @@
         <v>137</v>
       </c>
       <c r="D48" t="n">
-        <v>1.88</v>
+        <v>1.23</v>
       </c>
       <c r="E48" t="n">
-        <v>0.86</v>
+        <v>0.05</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07</v>
+        <v>0</v>
       </c>
       <c r="G48" t="n">
         <v>0</v>
@@ -3534,16 +3534,16 @@
         <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>1.24</v>
+        <v>0.59</v>
       </c>
       <c r="K48" t="n">
-        <v>0.26</v>
+        <v>0.01</v>
       </c>
       <c r="L48" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="M48" t="n">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="N48" t="n">
         <v>0</v>
@@ -3581,16 +3581,16 @@
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>1.15</v>
+        <v>0.55</v>
       </c>
       <c r="K49" t="n">
-        <v>0.18</v>
+        <v>0.01</v>
       </c>
       <c r="L49" t="n">
         <v>0</v>
       </c>
       <c r="M49" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="N49" t="n">
         <v>0</v>
@@ -3610,13 +3610,13 @@
         <v>139</v>
       </c>
       <c r="D50" t="n">
-        <v>3.12</v>
+        <v>2.65</v>
       </c>
       <c r="E50" t="n">
-        <v>2.09</v>
+        <v>1.09</v>
       </c>
       <c r="F50" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="G50" t="n">
         <v>0</v>
@@ -3628,16 +3628,16 @@
         <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>1.99</v>
+        <v>1.3</v>
       </c>
       <c r="K50" t="n">
-        <v>0.79</v>
+        <v>0.29</v>
       </c>
       <c r="L50" t="n">
-        <v>0.23</v>
+        <v>0.03</v>
       </c>
       <c r="M50" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="N50" t="n">
         <v>0</v>
@@ -3675,16 +3675,16 @@
         <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>1.26</v>
+        <v>0.57</v>
       </c>
       <c r="K51" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="L51" t="n">
         <v>0</v>
       </c>
       <c r="M51" t="n">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="N51" t="n">
         <v>0</v>
@@ -3722,16 +3722,16 @@
         <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>1.24</v>
+        <v>0.55</v>
       </c>
       <c r="K52" t="n">
-        <v>0.22</v>
+        <v>0.02</v>
       </c>
       <c r="L52" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="M52" t="n">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="N52" t="n">
         <v>0</v>
@@ -3769,16 +3769,16 @@
         <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>1.16</v>
+        <v>0.22</v>
       </c>
       <c r="K53" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="L53" t="n">
         <v>0</v>
       </c>
       <c r="M53" t="n">
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="N53" t="n">
         <v>0</v>
@@ -3816,16 +3816,16 @@
         <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>1.69</v>
+        <v>0.68</v>
       </c>
       <c r="K54" t="n">
-        <v>0.32</v>
+        <v>0.11</v>
       </c>
       <c r="L54" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="M54" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="N54" t="n">
         <v>0</v>
@@ -3910,16 +3910,16 @@
         <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>1.16</v>
+        <v>0.49</v>
       </c>
       <c r="K56" t="n">
-        <v>0.18</v>
+        <v>0.03</v>
       </c>
       <c r="L56" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="M56" t="n">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="N56" t="n">
         <v>0</v>
